--- a/github.com/ai23008/repoactitime.git/Actitime/data/input.xlsx
+++ b/github.com/ai23008/repoactitime.git/Actitime/data/input.xlsx
@@ -1,23 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="2985" yWindow="2445" windowWidth="8070" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t xml:space="preserve">Username </t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,6 +72,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -343,36 +366,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/github.com/ai23008/repoactitime.git/Actitime/data/input.xlsx
+++ b/github.com/ai23008/repoactitime.git/Actitime/data/input.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="2445" windowWidth="8070" windowHeight="6495"/>
+    <workbookView xWindow="2985" yWindow="2445" windowWidth="11850" windowHeight="4065"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ValidLogin" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -370,7 +370,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/github.com/ai23008/repoactitime.git/Actitime/data/input.xlsx
+++ b/github.com/ai23008/repoactitime.git/Actitime/data/input.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t xml:space="preserve">Username </t>
   </si>
@@ -26,9 +26,6 @@
   </si>
   <si>
     <t>admin</t>
-  </si>
-  <si>
-    <t>manager</t>
   </si>
 </sst>
 </file>
@@ -370,7 +367,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -388,7 +385,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/github.com/ai23008/repoactitime.git/Actitime/data/input.xlsx
+++ b/github.com/ai23008/repoactitime.git/Actitime/data/input.xlsx
@@ -8,16 +8,16 @@
   </bookViews>
   <sheets>
     <sheet name="ValidLogin" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="InvalidLogins" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:L12"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t xml:space="preserve">Username </t>
   </si>
@@ -26,13 +26,37 @@
   </si>
   <si>
     <t>admin</t>
+  </si>
+  <si>
+    <t>Username Password</t>
+  </si>
+  <si>
+    <t>assas</t>
+  </si>
+  <si>
+    <t>sa</t>
+  </si>
+  <si>
+    <t>sas</t>
+  </si>
+  <si>
+    <t>asa</t>
+  </si>
+  <si>
+    <t>asasa</t>
+  </si>
+  <si>
+    <t>Enter Time-Track</t>
+  </si>
+  <si>
+    <t>manager</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -40,13 +64,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF2F4359"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -61,8 +97,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -364,43 +403,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>126</v>
+      </c>
+      <c r="B5">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
